--- a/MATLAB_codes/Testing_endogeneity/Results/Excels/usual_suspects_fullpairwise_Unif_beta_Abs_deltax_23-Nov-2023.xlsx
+++ b/MATLAB_codes/Testing_endogeneity/Results/Excels/usual_suspects_fullpairwise_Unif_beta_Abs_deltax_23-Nov-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Testing_endogeneity\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{523BD986-3476-4D77-9B15-D39AAE6EF665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B828883-B0E2-4774-9A61-CCB8A98EC158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10575" yWindow="2625" windowWidth="7500" windowHeight="7875" xr2:uid="{B8FCC3E9-6084-4503-8513-8F343C0473F5}"/>
   </bookViews>
